--- a/medicine/Enfance/Fever_Crumb_(série_littéraire)/Fever_Crumb_(série_littéraire).xlsx
+++ b/medicine/Enfance/Fever_Crumb_(série_littéraire)/Fever_Crumb_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fever_Crumb_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Fever_Crumb_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,43 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fever Crumb est une série de science-fiction écrite par l'écrivain britannique Philip Reeve et parue de 2009 à 2011. Elle précède la série Tom et Hester, publiée antérieurement.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fever_Crumb_(s%C3%A9rie_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fever_Crumb_(s%C3%A9rie_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Résumés</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fever Crumb
-A Web of Air
-Scrivener's Moon</t>
         </is>
       </c>
     </row>
